--- a/Second year of study/Лабы по Прикладной статистике/лаб 4/лаб4.xlsx
+++ b/Second year of study/Лабы по Прикладной статистике/лаб 4/лаб4.xlsx
@@ -7,15 +7,15 @@
     <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="лаб4" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Данные" sheetId="1" r:id="rId1"/>
+    <sheet name="Уровень регргесии" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>Модель</t>
   </si>
@@ -148,16 +148,65 @@
   <si>
     <t>Goldshell LT5 Pro</t>
   </si>
+  <si>
+    <t xml:space="preserve">Среднее по полю Хешрейт, Mh/s
+</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>R^2 &lt; 0,5 - незначимая взаимосвязь</t>
+  </si>
+  <si>
+    <t>Среднее по полю Энергопотребление, W</t>
+  </si>
+  <si>
+    <t>Среднее по полю Энергоэффективность, J/Mh</t>
+  </si>
+  <si>
+    <t>R^2 &gt; 0,5 - значимая взаимосвязь</t>
+  </si>
+  <si>
+    <t>Среднее по полю Стоимость, руб</t>
+  </si>
+  <si>
+    <t>Количество по полю Модель</t>
+  </si>
+  <si>
+    <t>252766-352765</t>
+  </si>
+  <si>
+    <t>52766-152765</t>
+  </si>
+  <si>
+    <t>152766-252765</t>
+  </si>
+  <si>
+    <t>352766-452765</t>
+  </si>
+  <si>
+    <t>3452766-3500000</t>
+  </si>
+  <si>
+    <t>1752766-1852765</t>
+  </si>
+  <si>
+    <t>652766-752765</t>
+  </si>
+  <si>
+    <t>452766-552765</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -169,10 +218,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -193,6 +244,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -208,14 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,22 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,10 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,9 +366,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,7 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +535,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,11 +587,29 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -555,16 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,11 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,57 +717,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,135 +788,141 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,266 +1001,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0895833333333333"/>
-                  <c:y val="-0.777777777777778"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Лист2!$A$1:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Equilhash</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SHA-256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bake2s</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>X11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrypt</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cuckatoo32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ethash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист2!$B$1:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>630000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60333.3333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14840</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2554.28571428571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="709507630"/>
-        <c:axId val="953849586"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="709507630"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1188,132 +1019,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:t>Среднее по полю Хешрейт</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="953849586"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="953849586"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709507630"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="ru-RU"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1323,25 +1034,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1405,7 +1097,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.114583333333333"/>
+                  <c:y val="-0.774305555555556"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1436,29 +1133,29 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Лист2!$A$10:$A$17</c:f>
+              <c:f>'Уровень регргесии'!$A$2:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>X11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>SHA-256</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>Scrypt</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bake2s</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Cuckatoo32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Equilhash</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Ethash</c:v>
@@ -1468,33 +1165,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$B$10:$B$17</c:f>
+              <c:f>'Уровень регргесии'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17143.5</c:v>
+                  <c:v>630000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4092</c:v>
+                  <c:v>83000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3350</c:v>
+                  <c:v>60333.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3188</c:v>
+                  <c:v>16600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3154</c:v>
+                  <c:v>14840</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2800</c:v>
+                  <c:v>11900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2650</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1622.85714285714</c:v>
+                  <c:v>2554.28571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,11 +1206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127719683"/>
-        <c:axId val="203016395"/>
+        <c:axId val="363235566"/>
+        <c:axId val="407182313"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127719683"/>
+        <c:axId val="363235566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,12 +1265,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203016395"/>
+        <c:crossAx val="407182313"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203016395"/>
+        <c:axId val="407182313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1326,1968 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127719683"/>
+        <c:crossAx val="363235566"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Среднее по полю Энергопотребление</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0622916666666667"/>
+          <c:y val="0.0416666666666667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.108333333333333"/>
+                  <c:y val="-0.795138888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Уровень регргесии'!$A$18:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cuckatoo32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Уровень регргесии'!$B$18:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17143.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1622.85714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="963973659"/>
+        <c:axId val="160844780"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="963973659"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160844780"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="160844780"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963973659"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Среднее по полю Энергоэффективность</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0475694444444444"/>
+          <c:y val="0.0416666666666667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.116666666666667"/>
+                  <c:y val="-0.517361111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Уровень регргесии'!$A$33:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cuckatoo32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Уровень регргесии'!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>53.0285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="643953063"/>
+        <c:axId val="285144092"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="643953063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285144092"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285144092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643953063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Среднее по полю Стоимость</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.182638888888889"/>
+          <c:y val="0.03125"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1125"/>
+                  <c:y val="-0.777777777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Уровень регргесии'!$A$49:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cuckatoo32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Уровень регргесии'!$B$49:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250914.285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247709.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219834.416666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="185268377"/>
+        <c:axId val="268932449"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="185268377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268932449"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="268932449"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185268377"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Количество по полю Модель</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.150625"/>
+          <c:y val="0.0416666666666667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.120833333333333"/>
+                  <c:y val="-0.814567660108025"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Уровень регргесии'!$A$64:$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cuckatoo32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Уровень регргесии'!$B$64:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669968727"/>
+        <c:axId val="324962932"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="669968727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324962932"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324962932"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669968727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ru-RU"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Количество по полю Модель</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.177708333333333"/>
+          <c:y val="0.0416666666666667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0958333333333333"/>
+                  <c:y val="-0.767361111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Уровень регргесии'!$A$80:$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>252766-352765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52766-152765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152766-252765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352766-452765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3452766-3500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1752766-1852765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>652766-752765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452766-552765</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Уровень регргесии'!$B$80:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465272474"/>
+        <c:axId val="698622646"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465272474"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698622646"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="698622646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465272474"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1757,6 +3415,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2789,28 +4607,2092 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5648325" y="282575"/>
+        <a:off x="5334000" y="73025"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2823,29 +6705,149 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5638800" y="3463925"/>
+        <a:off x="5353050" y="2911475"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5334000" y="5768975"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5343525" y="8616950"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5334000" y="11512550"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5343525" y="14474825"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3130,7 +7132,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B22" sqref="A2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3144,622 +7146,622 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>9050</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>3300</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>35</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>424373</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>3680</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>2200</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>60</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>206855</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>2400</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>1920</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>85</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>96671</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>14000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>3010</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>21.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>299392</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>13600</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>3264</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>24</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>130000</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>84000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>2650</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>31.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>252008</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:6">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>42000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>2650</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>37.2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>243411</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>11800</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>3306</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>29</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>145741</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>10400</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>3250</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>32.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>109490</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>11200</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>3472</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>31</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>134186</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>83000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>3188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>38</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>3500000</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>3600</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>2400</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>86.1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>672603</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>25700</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>5300</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>20.8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>486948</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>9050</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="9">
         <v>3300</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>36</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>408879</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>20000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>5550</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <v>26</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>403922</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>25000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>7250</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>350000</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>17000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>2839</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10">
         <v>17.7</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <v>348246</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="9">
         <v>800</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>1300</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="10">
         <v>27</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <v>285115</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>12680</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>31448</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="10">
         <v>52</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <v>279854</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>16600</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>3154</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="10">
         <v>19</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>269470</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>13000</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <v>3276</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10">
         <v>34.3</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <v>198723</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>3600</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>2800</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="10">
         <v>41</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>1780000</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="9">
         <v>7000</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <v>3276</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="10">
         <v>45</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <v>106845</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="9">
         <v>1500</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <v>2350</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="10">
         <v>15.6</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>100263</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>6800</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>3200</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="10">
         <v>48</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>52766</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="9">
         <v>5000</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>3700</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="10">
         <v>74</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>276406</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="9">
         <v>5400</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>240</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="10">
         <v>32.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <v>272340</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:6">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="9">
         <v>16500</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>4950</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="10">
         <v>30</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>220000</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="9">
         <v>500</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="9">
         <v>950</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="10">
         <v>65</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>122553</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="9">
         <v>24500</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>3100</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="10">
         <v>22.3</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>302978</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3778,148 +7780,549 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B17"/>
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="34.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="43.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="36.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2">
         <v>630000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3">
         <v>83000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4">
         <v>60333.3333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5">
         <v>16600</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6">
         <v>14840</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7">
         <v>11900</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="3">
         <v>2554.28571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>72745.3333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B18">
         <v>17143.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B19">
         <v>4092</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B20">
         <v>3350</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B21">
         <v>3188</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B22">
         <v>3154</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B23">
         <v>2800</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B24">
         <v>2650</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B25" s="3">
         <v>1622.85714285714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4086.43333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>53.0285714285714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>41.825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>30.925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12">
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50">
+        <v>1780000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>353159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>314050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>269470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>250914.285714286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>247709.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3">
+        <v>219834.416666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="4">
+        <v>416001.266666667</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12">
+      <c r="L59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12">
+      <c r="L74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12">
+      <c r="L89" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Second year of study/Лабы по Прикладной статистике/лаб 4/лаб4.xlsx
+++ b/Second year of study/Лабы по Прикладной статистике/лаб 4/лаб4.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
-    <sheet name="Уровень регргесии" sheetId="2" r:id="rId2"/>
+    <sheet name="Уровень_регргесии" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -204,10 +204,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -244,21 +244,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -267,6 +252,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,14 +315,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +365,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -374,14 +374,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +402,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,43 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,37 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,30 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,21 +625,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +688,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,152 +731,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +884,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -901,10 +904,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1099,8 +1102,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.114583333333333"/>
-                  <c:y val="-0.774305555555556"/>
+                  <c:x val="0.116666666666666"/>
+                  <c:y val="-0.42838487409367"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1133,7 +1136,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$2:$A$9</c:f>
+              <c:f>Уровень_регргесии!$A$2:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1165,33 +1168,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$2:$B$9</c:f>
+              <c:f>Уровень_регргесии!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>2554.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>630000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60333.3333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14840</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2554.28571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,7 +1531,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$18:$A$25</c:f>
+              <c:f>Уровень_регргесии!$A$18:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1560,33 +1563,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$18:$B$25</c:f>
+              <c:f>Уровень_регргесии!$B$18:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1622.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17143.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3154</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2650</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1622.85714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,7 +1926,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$33:$A$40</c:f>
+              <c:f>Уровень_регргесии!$A$33:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1955,33 +1958,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$33:$B$40</c:f>
+              <c:f>Уровень_регргесии!$B$33:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.825</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.0285714285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.925</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2321,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$49:$A$56</c:f>
+              <c:f>Уровень_регргесии!$A$49:$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2350,33 +2353,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$49:$B$56</c:f>
+              <c:f>Уровень_регргесии!$B$49:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>219834.416666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247709.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250914.285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>314050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3500000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1780000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>353159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>314050</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>269470</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250914.285714286</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>247709.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>219834.416666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2716,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$64:$A$71</c:f>
+              <c:f>Уровень_регргесии!$A$64:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2745,18 +2748,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$64:$B$71</c:f>
+              <c:f>Уровень_регргесии!$B$64:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2765,13 +2768,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3097,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>'Уровень регргесии'!$A$80:$A$87</c:f>
+              <c:f>Уровень_регргесии!$A$80:$A$87</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3126,33 +3129,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Уровень регргесии'!$B$80:$B$87</c:f>
+              <c:f>Уровень_регргесии!$B$80:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7131,8 +7134,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B22" sqref="A2:F31"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -7146,622 +7149,622 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>9050</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>3300</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>35</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>424373</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>3680</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>2200</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>60</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>206855</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>2400</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1920</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>85</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>96671</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>14000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>3010</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>21.5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>299392</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>13600</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>3264</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>130000</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>84000</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>2650</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>31.5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>252008</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>42000</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>2650</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>37.2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>243411</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>11800</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>3306</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>29</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>145741</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>10400</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>3250</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>32.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>109490</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>11200</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>3472</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>31</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>134186</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>83000</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>3188</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>38</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>3500000</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>3600</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>2400</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>86.1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>672603</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>25700</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>5300</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>20.8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>486948</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>9050</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>3300</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>36</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>408879</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>20000</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>5550</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>26</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>403922</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>25000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>7250</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>29</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>350000</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>17000</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>2839</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>17.7</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>348246</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>800</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>1300</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>27</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>285115</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>12680</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>31448</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>52</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>279854</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>16600</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>3154</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>19</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>269470</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>13000</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>3276</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>34.3</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>198723</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>3600</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>2800</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>41</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>1780000</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>7000</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>3276</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>45</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="10">
         <v>106845</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>1500</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>2350</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>15.6</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>100263</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>6800</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>3200</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <v>48</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>52766</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>5000</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>3700</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>74</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <v>276406</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:6">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>5400</v>
       </c>
-      <c r="C28" s="9">
-        <v>240</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D28" s="11">
         <v>32.5</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>272340</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:6">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>16500</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>4950</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <v>30</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>220000</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:6">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>500</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>950</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>65</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="10">
         <v>122553</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:6">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>24500</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>3100</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>22.3</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="10">
         <v>302978</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7782,8 +7785,8 @@
   <sheetPr/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7805,8 +7808,8 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>630000</v>
+      <c r="B2" s="3">
+        <v>2554.28571428571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7814,7 +7817,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>83000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7822,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>60333.3333333333</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7830,7 +7833,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>16600</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7838,7 +7841,7 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>14840</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7846,7 +7849,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>11900</v>
+        <v>60333.3333333333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7854,51 +7857,51 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>3600</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>2554.28571428571</v>
+      <c r="B9" s="4">
+        <v>630000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>72745.3333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="L13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
@@ -7912,8 +7915,8 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
-        <v>17143.5</v>
+      <c r="B18" s="3">
+        <v>1622.85714285714</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7921,7 +7924,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>4092</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7929,7 +7932,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>3350</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7937,7 +7940,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3188</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7945,7 +7948,7 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>3154</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7953,7 +7956,7 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>2800</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7961,22 +7964,22 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>2650</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="3">
-        <v>1622.85714285714</v>
+      <c r="B25" s="4">
+        <v>17143.5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>4086.43333333333</v>
       </c>
     </row>
@@ -7997,8 +8000,8 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33">
-        <v>53.0285714285714</v>
+      <c r="B33" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8006,7 +8009,7 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>41.825</v>
+        <v>30.925</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8014,7 +8017,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>34.35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8022,7 +8025,7 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8030,7 +8033,7 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <v>34.85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8038,7 +8041,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>34.35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8046,22 +8049,22 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>30.925</v>
+        <v>41.825</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="3">
-        <v>19</v>
+      <c r="B40" s="4">
+        <v>53.0285714285714</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>38.2</v>
       </c>
     </row>
@@ -8082,8 +8085,8 @@
       <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="B49">
-        <v>3500000</v>
+      <c r="B49" s="3">
+        <v>219834.416666667</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8091,7 +8094,7 @@
         <v>35</v>
       </c>
       <c r="B50">
-        <v>1780000</v>
+        <v>247709.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8099,7 +8102,7 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>353159</v>
+        <v>250914.285714286</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8107,7 +8110,7 @@
         <v>28</v>
       </c>
       <c r="B52">
-        <v>314050</v>
+        <v>269470</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8115,7 +8118,7 @@
         <v>32</v>
       </c>
       <c r="B53">
-        <v>269470</v>
+        <v>314050</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8123,7 +8126,7 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>250914.285714286</v>
+        <v>353159</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8131,22 +8134,22 @@
         <v>15</v>
       </c>
       <c r="B55">
-        <v>247709.5</v>
+        <v>1780000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="3">
-        <v>219834.416666667</v>
+      <c r="B56" s="4">
+        <v>3500000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>416001.266666667</v>
       </c>
     </row>
@@ -8168,7 +8171,7 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8176,15 +8179,15 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66">
-        <v>4</v>
+      <c r="B66" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8208,7 +8211,7 @@
         <v>21</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8216,22 +8219,22 @@
         <v>35</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="3">
-        <v>1</v>
+      <c r="B71" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="5">
         <v>30</v>
       </c>
     </row>
@@ -8253,7 +8256,7 @@
         <v>52</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8261,7 +8264,7 @@
         <v>53</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8269,15 +8272,15 @@
         <v>54</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>55</v>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8285,7 +8288,7 @@
         <v>56</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8293,7 +8296,7 @@
         <v>57</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8301,22 +8304,22 @@
         <v>58</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="3">
-        <v>1</v>
+      <c r="B87" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="5">
         <v>30</v>
       </c>
     </row>
@@ -8326,6 +8329,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B80:B87">
+    <sortCondition ref="B80:B87"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
